--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 3, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,85 +1360,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>……ほう。あの『錆びた英雄』がまた召喚されたか</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>……ほう。あの『錆びた英雄』がまた召喚されたか</t>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>賭けは『3ターン以内に装備が崩壊』で。</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>賭けは『3ターン以内に装備が崩壊』で。</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>いや、この新人は少しは保つだろう。『5ターン』だ。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>いや、この新人は少しは保つだろう。『5ターン』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,38 +564,68 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>……来たか。</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>……来たか。</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
         </is>
       </c>
     </row>
@@ -607,17 +637,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>……来たか。</t>
+          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>……来たか。</t>
+          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
         </is>
       </c>
     </row>
@@ -629,17 +659,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
+          <t>（彼は兜を床に置き、深く息を吐く。）</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
+          <t>（彼は兜を床に置き、深く息を吐く。）</t>
         </is>
       </c>
     </row>
@@ -651,171 +681,141 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
+          <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
+          <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>react1_hard</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c1_hard</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>……辛い話だな</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>……辛い話だな</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>react1_kain</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c1_kain</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>カインは今どうなっている？</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>カインは今どうなっている？</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>react1_hard</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>（彼は兜を床に置き、深く息を吐く。）</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>（彼は兜を床に置き、深く息を吐く。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>react1_hard</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c1_hard</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>……辛い話だな</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>……辛い話だな</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>react1_kain</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>c1_kain</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>カインは今どうなっている？</t>
+          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>カインは今どうなっている？</t>
+          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_declaration</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>react1_hard</t>
+          <t>react1_kain</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
+          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
+          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>react1_kain</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
     </row>
@@ -887,55 +887,85 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_declaration</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>scene2_declaration</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>scene2_declaration</t>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
         </is>
       </c>
     </row>
@@ -947,17 +977,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
+          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
+          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
         </is>
       </c>
     </row>
@@ -969,17 +999,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
+          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
+          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
         </is>
       </c>
     </row>
@@ -991,171 +1021,141 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>balgas_8</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
+          <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
+          <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>react2_accept</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>c2_accept</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+          <t>分かった。任せてくれ</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+          <t>分かった。任せてくれ</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>react2_saved</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c2_saved</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>カインを倒せば、彼は救われるのか？</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>カインを倒せば、彼は救われるのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>react2_accept</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>react2_accept</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>c2_accept</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>分かった。任せてくれ</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>分かった。任せてくれ</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>react2_saved</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>c2_saved</t>
+          <t>balgas_r4</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>カインを倒せば、彼は救われるのか？</t>
+          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>カインを倒せば、彼は救われるのか？</t>
+          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>react2_accept</t>
+          <t>react2_saved</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>balgas_r4</t>
+          <t>balgas_r5</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
+          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
+          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>react2_saved</t>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
@@ -1203,17 +1203,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>balgas_r5</t>
+          <t>balgas_r6</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
+          <t>……頼んだぜ。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
+          <t>……頼んだぜ。</t>
         </is>
       </c>
     </row>
@@ -1227,55 +1227,70 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>balgas_r6</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>……頼んだぜ。</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>……頼んだぜ。</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Kain_Requiem");             var data = SoundManager.current.GetData("BGM/Battle_Kain_Requiem");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Kain_Requiem");             }</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Kain_Requiem");             var data = SoundManager.current.GetData("BGM/Battle_Kain_Requiem");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Kain_Requiem");             }</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
         </is>
       </c>
     </row>
@@ -1287,17 +1302,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_10</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
+          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
+          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
         </is>
       </c>
     </row>
@@ -1309,70 +1324,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,180 +488,150 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が嘘のように静まり返った深夜。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が嘘のように静まり返った深夜。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（バルガスはいつもの酒瓶を持たず、代わりに血錆にまみれた「古い戦士の兜」を無造作に眺めていた。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスはいつもの酒瓶を持たず、代わりに血錆にまみれた「古い戦士の兜」を無造作に眺めていた。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
+    <row r="13">
+      <c r="F13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>（彼がこれほどまでに静かなのは、あなたがここへ来てから初めてのことだった。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（彼がこれほどまでに静かなのは、あなたがここへ来てから初めてのことだった。）</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
+    <row r="14">
+      <c r="D14" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>……来たか。</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>……来たか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>narr_4</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
         </is>
       </c>
     </row>
@@ -673,17 +643,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
+          <t>……来たか。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
+          <t>……来たか。</t>
         </is>
       </c>
     </row>
@@ -695,17 +665,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼は兜を床に置き、深く息を吐く。）</t>
+          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼は兜を床に置き、深く息を吐く。）</t>
+          <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
         </is>
       </c>
     </row>
@@ -717,141 +687,171 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>（彼は兜を床に置き、深く息を吐く。）</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>（彼は兜を床に置き、深く息を吐く。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
+    <row r="23">
+      <c r="B23" t="inlineStr">
         <is>
           <t>react1_hard</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>c1_hard</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>……辛い話だな</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>……辛い話だな</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
+    <row r="24">
+      <c r="B24" t="inlineStr">
         <is>
           <t>react1_kain</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>c1_kain</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>カインは今どうなっている？</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>カインは今どうなっている？</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>react1_hard</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>scene2_declaration</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>react1_kain</t>
+          <t>react1_hard</t>
         </is>
       </c>
     </row>
@@ -863,17 +863,17 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
+          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
+          <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_kain</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+          <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
       </c>
     </row>
@@ -923,85 +923,55 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>……まあ、黙って聞いててくれ。続きがある。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
           <t>scene2_declaration</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>scene2_declaration</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
         </is>
       </c>
     </row>
@@ -1013,17 +983,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+          <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1005,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
+          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
+          <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
         </is>
       </c>
     </row>
@@ -1057,141 +1027,171 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>balgas_7</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>balgas_8</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
+    <row r="43">
+      <c r="B43" t="inlineStr">
         <is>
           <t>react2_accept</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>c2_accept</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>分かった。任せてくれ</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>分かった。任せてくれ</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
+    <row r="44">
+      <c r="B44" t="inlineStr">
         <is>
           <t>react2_saved</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>c2_saved</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>カインを倒せば、彼は救われるのか？</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>カインを倒せば、彼は救われるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>react2_accept</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>balgas_r4</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>react2_saved</t>
+          <t>react2_accept</t>
         </is>
       </c>
     </row>
@@ -1203,17 +1203,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>balgas_r5</t>
+          <t>balgas_r4</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
+          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
+          <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_saved</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>balgas_r6</t>
+          <t>balgas_r5</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>……頼んだぜ。</t>
+          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>……頼んだぜ。</t>
+          <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
       </c>
     </row>
@@ -1263,70 +1263,55 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>balgas_r6</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……頼んだぜ。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……頼んだぜ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Kain_Requiem");             var data = SoundManager.current.GetData("BGM/Battle_Kain_Requiem");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Kain_Requiem");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
         </is>
       </c>
     </row>
@@ -1338,17 +1323,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
+          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
+          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
         </is>
       </c>
     </row>
@@ -1360,19 +1345,70 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="D60" t="inlineStr">
+    <row r="63">
+      <c r="D63" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -1328,12 +1328,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
+          <t>（闘技場の門を潜ると、冷たく不吉な風が吹いた。）</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、そこはいつもの砂地ではなく、無数の折れた剣と壊れた鎧が積み上がった「武具の墓場」へと変貌していた。）</t>
+          <t>（闘技場の門を潜ると、冷たく不吉な風が吹いた。）</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_E.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,282 +491,282 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が嘘のように静まり返った深夜。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が嘘のように静まり返った深夜。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（バルガスはいつもの酒瓶を持たず、代わりに血錆にまみれた「古い戦士の兜」を無造作に眺めていた。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（バルガスはいつもの酒瓶を持たず、代わりに血錆にまみれた「古い戦士の兜」を無造作に眺めていた。）</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>（彼がこれほどまでに静かなのは、あなたがここへ来てから初めてのことだった。）</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>（彼がこれほどまでに静かなのは、あなたがここへ来てから初めてのことだった。）</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>……来たか。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>……来たか。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>（彼は兜を撫でながら、低く掠れた声で話し始める。）</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>おい、新入り。お前は『鉄』がなぜ錆びるか知ってるか？手入れを怠るからじゃねえ。……持ち主の心が折れた時、鉄も一緒に死ぬんだよ。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>かつて俺と一緒に地獄を這いずり回った相棒がいた。名はカイン。俺たちは『鉄の意志』を掲げてこのアリーナに挑んだが……あいつは、グランドマスターの影に触れ、魂をこの異次元の『錆』に食い尽くされた。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>（彼は兜を床に置き、深く息を吐く。）</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>（彼は兜を床に置き、深く息を吐く。）</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>あいつは……強かった。だが、守るべきものを失って、壊れちまった。……俺は、あいつを救えなかった。</t>
         </is>
@@ -773,22 +778,22 @@
           <t>react1_hard</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>c1_hard</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>……辛い話だな</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>……辛い話だな</t>
         </is>
@@ -800,22 +805,22 @@
           <t>react1_kain</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>c1_kain</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>カインは今どうなっている？</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>カインは今どうなっている？</t>
         </is>
@@ -827,22 +832,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -856,22 +861,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>辛い？ ……ああ、そうだな。だが、それがこのアリーナの現実だ。</t>
         </is>
@@ -892,22 +897,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>……あいつは、この場所の『記憶』になっちまった。お前の次の相手だ。</t>
         </is>
@@ -928,22 +933,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>……まあ、黙って聞いててくれ。続きがある。</t>
         </is>
@@ -964,144 +969,144 @@
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Emotional_Sorrow");             var data = SoundManager.current.GetData("BGM/Emotional_Sorrow");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Emotional_Sorrow");             }</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>（バルガスは兜を床に転がすと、あなたを射抜くような鋭い視線で立ち上がった。）</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>次のRank E……『鉄屑』への試験。相手は、そのカインの成れの果てだ。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>アリーナの記憶が具現化した、心も言葉も持たねえ『錆びついた英雄（ラスティ・ヒーロー）』。</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>（彼は拳を握りしめ、わずかに震える声で続ける。）</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>あいつを倒せば、お前は晴れて『鉄屑』だ。だが、もし負ければ……お前もあいつの一部として、永遠にこの床を磨き続けることになる。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>balgas_8</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>……いいか、これは俺の我儘だ。あいつを……あの錆びついた悪夢を、終わらせてやってくれ。</t>
         </is>
@@ -1113,22 +1118,22 @@
           <t>react2_accept</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>c2_accept</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>分かった。任せてくれ</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>分かった。任せてくれ</t>
         </is>
@@ -1140,22 +1145,22 @@
           <t>react2_saved</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>c2_saved</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>カインを倒せば、彼は救われるのか？</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>カインを倒せば、彼は救われるのか？</t>
         </is>
@@ -1167,22 +1172,22 @@
           <t>react2_nod</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>c2_nod</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1196,22 +1201,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>balgas_r4</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>……ありがよ。お前なら、やってくれると思ってた。</t>
         </is>
@@ -1232,22 +1237,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>balgas_r5</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>……ああ。この地獄から解放される。それが俺にできる、最後の友情だ。</t>
         </is>
@@ -1268,22 +1273,22 @@
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>balgas_r6</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>……頼んだぜ。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>……頼んだぜ。</t>
         </is>
@@ -1304,111 +1309,111 @@
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Kain_Requiem");             var data = SoundManager.current.GetData("BGM/Battle_Kain_Requiem");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Kain_Requiem");             }</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、冷たく不吉な風が吹いた。）</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、冷たく不吉な風が吹いた。）</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>（中央に立つのは、全身から赤黒い錆を滴らせ、顔のない兜から青い炎を揺らめかせる一人の騎士。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>（騎士は巨大な錆びた剣を地に突き立て、ゆっくりと頭を上げる。）</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>end</t>
         </is>
